--- a/dtpu_configurations/only_integer32/80mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_5x5/power.xlsx
@@ -47,7 +47,7 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_power_0</t>
+    <t>retiming, retiming_route_report_power_0</t>
   </si>
 </sst>
 </file>
@@ -122,12 +122,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.71875" customWidth="true"/>
+    <col min="1" max="1" width="45.46875" customWidth="true"/>
     <col min="2" max="2" width="9.0625" customWidth="true"/>
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.02662329003214836</v>
+        <v>0.038677625358104706</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.0158744715154171</v>
+        <v>0.01465050969272852</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010431334376335144</v>
+        <v>0.011020987294614315</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.008585592731833458</v>
+        <v>0.008551288396120071</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.300062209949829E-5</v>
+        <v>0.0016408354276791215</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.002673029899597168</v>
+        <v>0.0026934267953038216</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0014924227725714445</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12655408680438995</v>
+        <v>0.12768863141536713</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4527356624603271</v>
+        <v>1.466874122619629</v>
       </c>
     </row>
   </sheetData>
